--- a/DATA/SCM/存货档案2021-10-25.XLSX
+++ b/DATA/SCM/存货档案2021-10-25.XLSX
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ERP Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_product\KPI\DATA\SCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57AF84BC-66B7-4790-966B-1278C297C9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -6850,7 +6849,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -6975,23 +6974,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7027,23 +7009,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7219,10 +7184,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF716"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData>
